--- a/Arbeitszeiten Olivia.xlsx
+++ b/Arbeitszeiten Olivia.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivi\Documents\GitHub\Dokumente\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{522F400B-A908-4A0F-BC6F-D95F863272F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -18,10 +24,59 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="12">
+  <si>
+    <t>Datum</t>
+  </si>
+  <si>
+    <t>Aufgabe</t>
+  </si>
+  <si>
+    <t>Beginn</t>
+  </si>
+  <si>
+    <t>Ende</t>
+  </si>
+  <si>
+    <t>Zeit</t>
+  </si>
+  <si>
+    <t>graphische Darstellung</t>
+  </si>
+  <si>
+    <t>1h</t>
+  </si>
+  <si>
+    <t>30 min</t>
+  </si>
+  <si>
+    <t>2h</t>
+  </si>
+  <si>
+    <t>Meeting</t>
+  </si>
+  <si>
+    <t>Seitenstruktur grob</t>
+  </si>
+  <si>
+    <t>1,5h</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -49,11 +104,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -330,13 +388,140 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="11.453125" customWidth="1"/>
+    <col min="2" max="2" width="24.26953125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" s="2">
+        <v>44154</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="3">
+        <v>0.625</v>
+      </c>
+      <c r="D2" s="3">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" s="2">
+        <v>44157</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D3" s="3">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" s="2">
+        <v>44160</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="E4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" s="2">
+        <v>44162</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0.375</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="E5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" s="2">
+        <v>44167</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="E6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="2">
+        <v>44172</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Arbeitszeiten Olivia.xlsx
+++ b/Arbeitszeiten Olivia.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivi\Documents\GitHub\Dokumente\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{522F400B-A908-4A0F-BC6F-D95F863272F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1A57023-BAED-4756-87D8-609F827D1738}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1900" yWindow="1900" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="14">
   <si>
     <t>Datum</t>
   </si>
@@ -61,6 +61,12 @@
   </si>
   <si>
     <t>1,5h</t>
+  </si>
+  <si>
+    <t>Protokoll Rezept hochladen</t>
+  </si>
+  <si>
+    <t>Protokoll Rezept hochladen(fertig)</t>
   </si>
 </sst>
 </file>
@@ -389,16 +395,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="11.453125" customWidth="1"/>
-    <col min="2" max="2" width="24.26953125" customWidth="1"/>
+    <col min="2" max="2" width="35.36328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
@@ -520,6 +526,57 @@
         <v>8</v>
       </c>
     </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="2">
+        <v>44182</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="3">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="E8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="2">
+        <v>44193</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="E9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="2">
+        <v>44202</v>
+      </c>
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0.8125</v>
+      </c>
+      <c r="E10" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Arbeitszeiten Olivia.xlsx
+++ b/Arbeitszeiten Olivia.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivi\Documents\GitHub\Dokumente\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1A57023-BAED-4756-87D8-609F827D1738}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F4E6BB3-571A-4504-B06C-AA8B6BAAE3FE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1900" yWindow="1900" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="17">
   <si>
     <t>Datum</t>
   </si>
@@ -67,6 +67,15 @@
   </si>
   <si>
     <t>Protokoll Rezept hochladen(fertig)</t>
+  </si>
+  <si>
+    <t>Protokoll uploadRecipe in Form gebracht</t>
+  </si>
+  <si>
+    <t>uploadRecipe Kategorie hinzugefügt</t>
+  </si>
+  <si>
+    <t>aboutUs.php</t>
   </si>
 </sst>
 </file>
@@ -395,10 +404,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -577,6 +586,42 @@
         <v>11</v>
       </c>
     </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" s="2">
+        <v>44211</v>
+      </c>
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="3">
+        <v>0.375</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="E11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" s="2">
+        <v>44214</v>
+      </c>
+      <c r="B12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="3">
+        <v>0.38541666666666669</v>
+      </c>
+      <c r="D12" s="3">
+        <v>0.4375</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Arbeitszeiten Olivia.xlsx
+++ b/Arbeitszeiten Olivia.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivi\Documents\GitHub\Dokumente\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F4E6BB3-571A-4504-B06C-AA8B6BAAE3FE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AC8FDDC-B53C-451D-8CDA-0CBA628E7251}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1470" yWindow="1250" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="22">
   <si>
     <t>Datum</t>
   </si>
@@ -76,6 +76,21 @@
   </si>
   <si>
     <t>aboutUs.php</t>
+  </si>
+  <si>
+    <t>Header (Suchleiste, mit Patrick+Jonas)</t>
+  </si>
+  <si>
+    <t>Protokoll dynamisches Feld</t>
+  </si>
+  <si>
+    <t>Datenbank Zutaten + Schritte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meeting </t>
+  </si>
+  <si>
+    <t>3,5h</t>
   </si>
 </sst>
 </file>
@@ -404,10 +419,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -622,6 +637,68 @@
         <v>16</v>
       </c>
     </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="3">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="D14" s="3">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" s="2">
+        <v>44217</v>
+      </c>
+      <c r="B15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="3">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="D15" s="3">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" s="2">
+        <v>44218</v>
+      </c>
+      <c r="B16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="3">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="D16" s="3">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" s="2">
+        <v>44219</v>
+      </c>
+      <c r="B17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="3">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="D17" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="E17" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
